--- a/2023_madern_isobaric-tag-interference-modeling/Metadata_table.xlsx
+++ b/2023_madern_isobaric-tag-interference-modeling/Metadata_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomoffel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Moritz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57711FE-115F-734A-9AE8-2FE530A63C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779DD626-AB61-3E42-A393-A086890972FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="27580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -221,18 +221,6 @@
     <t>MaxQuant_FAIMS_MS2_txt</t>
   </si>
   <si>
-    <t>About interference modeling and interference-correction for data of yeast-human mixture samples of reduced sample complexity measured viaFAIMS MS2-based quantification. Comprises Supp Fig7C.</t>
-  </si>
-  <si>
-    <t>About interference modeling and interference-correction for data of yeast-human mixture samples of reduced sample complexity measured via MS2-based quantification. Comprises the majority of figures of the study (Fig 3, Fig 4, Fig 5A-B; Supp Fig 2, Supp Fig 3A, Supp Fig 4, Supp Fig5 A-B, Supp Fig 6, Supp Fig 8).</t>
-  </si>
-  <si>
-    <t>About interference modeling for data of TKO9 standard samples. Raw files correspond to previously published triplicate measurements of the TKO9 proteomics standard (PMID: 27400695). Comprises Supp Fig 5B and Supp Fig 7A. Raw files available at: https://www.ebi.ac.uk/pride/archive/projects/PXD008009</t>
-  </si>
-  <si>
-    <t>About interference modeling for data of TKO11 standard samples. Raw files correspond to previously published triplicate measurements of the TKO11 proteomics standard (PMID: 32202424). Comprises Supp Fig 7B. Raw files available at: https://www.ebi.ac.uk/pride/archive/projects/PXD017803</t>
-  </si>
-  <si>
     <t>Site-To-Protein Normalization in Multiplex Proteomics</t>
   </si>
   <si>
@@ -275,21 +263,12 @@
     <t>MaxQuant_SiteToProteinNorm_txt</t>
   </si>
   <si>
-    <t>About Interference modeling and site-to-protein normalization for data of yeast-human mixture samples. Comprises Fig 5C-F, Supp Fig 7D-E.</t>
-  </si>
-  <si>
-    <t>About characterizing variations in sample- and measurement-specific parameters in their effect on ion interference, ratio compression, differential expression analysis and peptide numbers. Comprises Fig2, Supp Fig1 and Supp Tab1.</t>
-  </si>
-  <si>
     <t>Comparison of Isolation Window Purity Metrics</t>
   </si>
   <si>
     <t>MaxQuant_MainExperiment_txt,Fragpipe_ComparativeMeasurements, PD_MSAmanda_MS2</t>
   </si>
   <si>
-    <t>About comparing "Precursor Purity Fraction" (PPF) with existing purity metrics from other software. These are: "PIF" from Maxquant, "Purity" from Fragpipe, "Isolation Interference" from Proteome Discoverer software MSAmanda. Comprises Supp Fig 3.</t>
-  </si>
-  <si>
     <t>Search Engine</t>
   </si>
   <si>
@@ -302,37 +281,37 @@
     <t>MaxQuant, FragPipe, Proteome Discoverer (MS Amanda)</t>
   </si>
   <si>
-    <t>Search result folder</t>
+    <t>About comparing "Precursor Purity Fraction" (PPF) with existing purity metrics from other software. These are: "PIF" from Maxquant, "Purity" from Fragpipe, "Isolation Interference" from Proteome Discoverer software MSAmanda. Comprises the following figure: Figure S4.</t>
+  </si>
+  <si>
+    <t>About Interference modeling and site-to-protein normalization for data of yeast-human mixture samples. Comprises the following figures: Figure 5C-F, Figure S9D-E.</t>
+  </si>
+  <si>
+    <t>About interference modeling for data of TKO11 standard samples. Raw files correspond to previously published triplicate measurements of the TKO11 proteomics standard (PMID: 32202424). Raw files available at: https://www.ebi.ac.uk/pride/archive/projects/PXD017803. Comprises the following figure: Figure S9B.</t>
+  </si>
+  <si>
+    <t>About interference modeling for data of TKO9 standard samples. Raw files correspond to previously published triplicate measurements of the TKO9 proteomics standard (PMID: 27400695). Raw files available at: https://www.ebi.ac.uk/pride/archive/projects/PXD008009. Comprises the following figures: Figure  S6B, Figure S9A.</t>
+  </si>
+  <si>
+    <t>About characterizing variations in sample- and measurement-specific parameters in their effect on ion interference, ratio compression, differential expression analysis and peptide numbers. Comprises the following figures: Figure 2, Figure S1, Figure S2, Table S1.</t>
+  </si>
+  <si>
+    <t>Search Results Folder on PRIDE</t>
+  </si>
+  <si>
+    <t>About interference modeling and interference-correction for data of yeast-human mixture samples of reduced sample complexity measured viaFAIMS MS2-based quantification. Comprises the following figure: Figure S9C.</t>
+  </si>
+  <si>
+    <t>About interference modeling and interference-correction for data of yeast-human mixture samples of reduced sample complexity measured via MS2-based quantification. Comprises the majority of figures in the study: Figure 3, Figure 4, Figure 5A-B, Figure S3, Figure S4A, Figure S5, Figure S6A, Figure S7, Figure S8, Figure S10.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -494,6 +473,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -694,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -964,54 +956,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1020,105 +1036,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1476,763 +1480,775 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E238F9F-5D05-3D40-8282-D37ACEB62C71}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="92.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="72" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="116.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="87.83203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="37" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="10"/>
     <col min="7" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="13" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="13" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="17" t="s">
+      <c r="E54" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="17" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="17" t="s">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="17" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18" t="s">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="17" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="25"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="17" t="s">
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-    </row>
-    <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B8:B45"/>
+    <mergeCell ref="A8:A45"/>
+    <mergeCell ref="E8:E45"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D45"/>
+    <mergeCell ref="D46:D48"/>
     <mergeCell ref="E60:E75"/>
     <mergeCell ref="A60:A75"/>
     <mergeCell ref="B60:B75"/>
@@ -2249,18 +2265,6 @@
     <mergeCell ref="D54:D59"/>
     <mergeCell ref="D60:D75"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B45"/>
-    <mergeCell ref="A8:A45"/>
-    <mergeCell ref="E8:E45"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D45"/>
-    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2308,14 +2312,14 @@
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
